--- a/MiniTemplate/Datas/__beans__.xlsx
+++ b/MiniTemplate/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52892A95-BBDD-42B6-A9C8-E869A5FA9CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD87AC-1C06-47DA-8356-D406D12FD20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="4680" windowWidth="29910" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,117 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>item.ItemExchange</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>test.TestExcelBean1</t>
+  </si>
+  <si>
+    <t>这是个测试excel结构</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>最高品质</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>黑色的</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>蓝色的</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>最差品质</t>
+  </si>
+  <si>
+    <t>test.TestExcelBean2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>test.Shape</t>
+  </si>
+  <si>
+    <t>test.Circle</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>圆</t>
+  </si>
+  <si>
+    <t>这是一个圆</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>test.Rectangle</t>
+  </si>
+  <si>
+    <t>矩形</t>
+  </si>
+  <si>
+    <t>这是一个矩形</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>高度</t>
   </si>
   <si>
     <t>alias</t>
@@ -184,11 +295,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -467,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,15 +621,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -527,8 +638,8 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
+      <c r="K2" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -542,8 +653,8 @@
       <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
+      <c r="P2" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -559,8 +670,8 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -571,8 +682,187 @@
       <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
